--- a/Assets/Resources/Excels/ItemSheets.xlsx
+++ b/Assets/Resources/Excels/ItemSheets.xlsx
@@ -5,18 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\sparta_team\Team12SoloProject\Assets\Resources\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\sparta_team\3D_TEAM12\Assets\Resources\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6EF5697-A840-4C08-9A84-2343EDAC94B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E6EC3F-7770-4C67-8D1E-D8809EBCDDA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57405" yWindow="1920" windowWidth="19335" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="56805" yWindow="2550" windowWidth="19335" windowHeight="16080" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemList" sheetId="1" r:id="rId1"/>
     <sheet name="EquipableList" sheetId="4" r:id="rId2"/>
-    <sheet name="StatBoostEffectList" sheetId="6" r:id="rId3"/>
-    <sheet name="ConsumableList" sheetId="3" r:id="rId4"/>
+    <sheet name="WeaponCombatList" sheetId="7" r:id="rId3"/>
+    <sheet name="StatBoostEffectList" sheetId="6" r:id="rId4"/>
+    <sheet name="ConsumableList" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="122">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -282,14 +283,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Prefabs/Equips/Weapon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Prefabs/Equips/Armor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Weapon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -362,30 +355,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Prefabs/DropItems/Gold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Prefabs/DropItems/Weapon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Prefabs/DropItems/Armor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Prefabs/DropItems/Accessory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Prefabs/Equips/Accessory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Prefabs/DropItems/Potion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/Textures/icons/equipments/accessory</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -403,6 +372,139 @@
   </si>
   <si>
     <t>rarityType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강철 대검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거대한 무기를 한번만 휘두룰 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예리한 석궁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멀리 있는 적을 공격 할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법 지팡이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중거리에 있는 적들을 공격 할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>combatStyleType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ComboAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MeleeAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RangeAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagicAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comboIndex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Projectiles/ComboAttack1</t>
+  </si>
+  <si>
+    <t>/Projectiles/ComboAttack2</t>
+  </si>
+  <si>
+    <t>/Projectiles/ComboAttack3</t>
+  </si>
+  <si>
+    <t>/DropItems/Potion</t>
+  </si>
+  <si>
+    <t>/DropItems/Gold</t>
+  </si>
+  <si>
+    <t>/DropItems/Weapon</t>
+  </si>
+  <si>
+    <t>/DropItems/Armor</t>
+  </si>
+  <si>
+    <t>/DropItems/Accessory</t>
+  </si>
+  <si>
+    <t>/Equips/Weapon</t>
+  </si>
+  <si>
+    <t>/Equips/Armor</t>
+  </si>
+  <si>
+    <t>/Equips/Accessory</t>
+  </si>
+  <si>
+    <t>/Projectiles/MeleeAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Projectiles/RangedAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Projectiles/MagicAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manaCost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cooltime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moveSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damagePer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waitTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>knockbackPower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>projectilePrefabPath</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -728,10 +830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -759,10 +861,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -785,7 +887,7 @@
         <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="G2" t="s">
         <v>29</v>
@@ -808,7 +910,7 @@
         <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="G3" t="s">
         <v>30</v>
@@ -831,7 +933,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="G4" t="s">
         <v>31</v>
@@ -854,7 +956,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="G5" t="s">
         <v>32</v>
@@ -877,7 +979,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="G6" t="s">
         <v>33</v>
@@ -900,7 +1002,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="G7" t="s">
         <v>34</v>
@@ -911,22 +1013,22 @@
         <v>1201</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E8" t="s">
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="G8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
@@ -934,22 +1036,22 @@
         <v>1202</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E9" t="s">
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="G9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
@@ -957,22 +1059,22 @@
         <v>1203</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E10" t="s">
         <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="G10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
@@ -980,22 +1082,22 @@
         <v>1204</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E11" t="s">
         <v>46</v>
       </c>
       <c r="F11" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="G11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
@@ -1015,7 +1117,7 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="G12" t="s">
         <v>35</v>
@@ -1038,7 +1140,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="G13" t="s">
         <v>35</v>
@@ -1061,7 +1163,7 @@
         <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="G14" t="s">
         <v>35</v>
@@ -1084,7 +1186,7 @@
         <v>46</v>
       </c>
       <c r="F15" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="G15" t="s">
         <v>35</v>
@@ -1092,59 +1194,59 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>1601</v>
+        <v>1505</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="D16" t="s">
         <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="G16" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>1602</v>
+        <v>1506</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="D17" t="s">
         <v>28</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="G17" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>1603</v>
+        <v>1507</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="D18" t="s">
         <v>28</v>
@@ -1153,30 +1255,30 @@
         <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="G18" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D19" t="s">
         <v>28</v>
       </c>
       <c r="E19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="G19" t="s">
         <v>49</v>
@@ -1184,94 +1286,163 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>1701</v>
+        <v>1602</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D20" t="s">
         <v>28</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="G20" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>1702</v>
+        <v>1603</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D21" t="s">
         <v>28</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="G21" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>1703</v>
+        <v>1604</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D22" t="s">
         <v>28</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F22" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="G22" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>1704</v>
+        <v>1701</v>
       </c>
       <c r="B23" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="D23" t="s">
         <v>28</v>
       </c>
       <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>106</v>
+      </c>
+      <c r="G23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>1702</v>
+      </c>
+      <c r="B24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>106</v>
+      </c>
+      <c r="G24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>1703</v>
+      </c>
+      <c r="B25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" t="s">
+        <v>106</v>
+      </c>
+      <c r="G25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>1704</v>
+      </c>
+      <c r="B26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" t="s">
         <v>46</v>
       </c>
-      <c r="F23" t="s">
-        <v>86</v>
-      </c>
-      <c r="G23" t="s">
-        <v>89</v>
+      <c r="F26" t="s">
+        <v>106</v>
+      </c>
+      <c r="G26" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1282,163 +1453,244 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC760A4F-E344-444D-9B20-4657346E05AF}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.08203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1501</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+        <v>107</v>
+      </c>
+      <c r="D2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1502</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+        <v>107</v>
+      </c>
+      <c r="D3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1503</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+        <v>107</v>
+      </c>
+      <c r="D4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1504</v>
       </c>
       <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>1505</v>
+      </c>
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>1506</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>1507</v>
+      </c>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>1601</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>1602</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>1603</v>
+      </c>
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>1604</v>
+      </c>
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>1701</v>
+      </c>
+      <c r="B13" t="s">
         <v>65</v>
       </c>
-      <c r="C5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6">
-        <v>1601</v>
-      </c>
-      <c r="B6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <v>1602</v>
-      </c>
-      <c r="B7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <v>1603</v>
-      </c>
-      <c r="B8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <v>1604</v>
-      </c>
-      <c r="B9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10">
-        <v>1701</v>
-      </c>
-      <c r="B10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11">
+      <c r="C13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14">
         <v>1702</v>
       </c>
-      <c r="B11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12">
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15">
         <v>1703</v>
       </c>
-      <c r="B12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13">
+      <c r="B15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16">
         <v>1704</v>
       </c>
-      <c r="B13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" t="s">
-        <v>87</v>
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1448,11 +1700,596 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F39F50C1-EBAF-4FC6-84DD-C074EB80D8AB}">
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.58203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1501</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.25</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>80</v>
+      </c>
+      <c r="J2">
+        <v>0.1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>1501</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.25</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>100</v>
+      </c>
+      <c r="J3">
+        <v>0.1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>1501</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.5</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>120</v>
+      </c>
+      <c r="J4">
+        <v>0.1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>1502</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.25</v>
+      </c>
+      <c r="G5">
+        <v>1.2</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>80</v>
+      </c>
+      <c r="J5">
+        <v>0.1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>1502</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.25</v>
+      </c>
+      <c r="G6">
+        <v>1.2</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>100</v>
+      </c>
+      <c r="J6">
+        <v>0.1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>1502</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>1.2</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>120</v>
+      </c>
+      <c r="J7">
+        <v>0.1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>1503</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0.25</v>
+      </c>
+      <c r="G8">
+        <v>1.5</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>80</v>
+      </c>
+      <c r="J8">
+        <v>0.1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>1503</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0.25</v>
+      </c>
+      <c r="G9">
+        <v>1.5</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>100</v>
+      </c>
+      <c r="J9">
+        <v>0.1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>1503</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0.5</v>
+      </c>
+      <c r="G10">
+        <v>1.5</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>120</v>
+      </c>
+      <c r="J10">
+        <v>0.1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>1504</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0.25</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>80</v>
+      </c>
+      <c r="J11">
+        <v>0.1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>1504</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0.25</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>100</v>
+      </c>
+      <c r="J12">
+        <v>0.1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>1504</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0.5</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>120</v>
+      </c>
+      <c r="J13">
+        <v>0.1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>1505</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>400</v>
+      </c>
+      <c r="J14">
+        <v>0.1</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>1506</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>6</v>
+      </c>
+      <c r="I15">
+        <v>200</v>
+      </c>
+      <c r="J15">
+        <v>0.1</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>1507</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16">
+        <v>30</v>
+      </c>
+      <c r="E16">
+        <v>15</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="I16">
+        <v>500</v>
+      </c>
+      <c r="J16">
+        <v>0.1</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26320459-E182-4282-B0CD-FC10DCCE71E9}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1472,7 +2309,7 @@
         <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -1486,7 +2323,7 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -1500,7 +2337,7 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -1514,7 +2351,7 @@
         <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
@@ -1528,7 +2365,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
@@ -1542,7 +2379,7 @@
         <v>100</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
@@ -1556,60 +2393,60 @@
         <v>1.5</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>1601</v>
+        <v>1505</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>1602</v>
+        <v>1506</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>1603</v>
+        <v>1507</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="C10">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="C11">
-        <v>1.2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
         <v>68</v>
@@ -1617,27 +2454,27 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C12">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="C13">
-        <v>1.5</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
         <v>68</v>
@@ -1645,27 +2482,27 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="C14">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>1701</v>
+        <v>1604</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C15">
-        <v>1.2</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
         <v>68</v>
@@ -1673,128 +2510,128 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>1701</v>
+        <v>1604</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="C16">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="D16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>1702</v>
+        <v>1604</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C17">
         <v>1.5</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C18">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="D18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="D20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="C21">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="D21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C22">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C23">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="D24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
@@ -1802,13 +2639,13 @@
         <v>1704</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="C25">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="D25" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
@@ -1816,13 +2653,13 @@
         <v>1704</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="C26">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="D26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
@@ -1830,13 +2667,55 @@
         <v>1704</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="C27">
         <v>1.5</v>
       </c>
       <c r="D27" t="s">
-        <v>68</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>1704</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28">
+        <v>1.5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>1704</v>
+      </c>
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29">
+        <v>1.5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>1704</v>
+      </c>
+      <c r="B30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30">
+        <v>1.5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1845,7 +2724,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB02C30-3E17-449D-8FEC-0460FEAF3D44}">
   <dimension ref="A1:E7"/>
   <sheetViews>
@@ -1874,7 +2753,7 @@
         <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -1891,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -1908,7 +2787,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -1925,7 +2804,7 @@
         <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -1942,7 +2821,7 @@
         <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -1959,7 +2838,7 @@
         <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
@@ -1976,7 +2855,7 @@
         <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Excels/ItemSheets.xlsx
+++ b/Assets/Resources/Excels/ItemSheets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\sparta_team\3D_TEAM12\Assets\Resources\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E6EC3F-7770-4C67-8D1E-D8809EBCDDA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC38FC7-9F76-4254-9A8E-018060727298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="56805" yWindow="2550" windowWidth="19335" windowHeight="16080" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemList" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="126">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -407,18 +407,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MeleeAttack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RangeAttack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MagicAttack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>None</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -451,9 +439,6 @@
     <t>/DropItems/Accessory</t>
   </si>
   <si>
-    <t>/Equips/Weapon</t>
-  </si>
-  <si>
     <t>/Equips/Armor</t>
   </si>
   <si>
@@ -505,6 +490,38 @@
   </si>
   <si>
     <t>projectilePrefabPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Equips/Sword_2H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Equips/Sword_1H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Equips/CrossBox_2H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Equips/Staff_2H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hitInterval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MeleeSkill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagicSkill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RangedSkill</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -887,7 +904,7 @@
         <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G2" t="s">
         <v>29</v>
@@ -910,7 +927,7 @@
         <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G3" t="s">
         <v>30</v>
@@ -933,7 +950,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G4" t="s">
         <v>31</v>
@@ -956,7 +973,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G5" t="s">
         <v>32</v>
@@ -979,7 +996,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G6" t="s">
         <v>33</v>
@@ -1002,7 +1019,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G7" t="s">
         <v>34</v>
@@ -1025,7 +1042,7 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G8" t="s">
         <v>72</v>
@@ -1048,7 +1065,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G9" t="s">
         <v>72</v>
@@ -1071,7 +1088,7 @@
         <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G10" t="s">
         <v>72</v>
@@ -1094,7 +1111,7 @@
         <v>46</v>
       </c>
       <c r="F11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G11" t="s">
         <v>72</v>
@@ -1117,7 +1134,7 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G12" t="s">
         <v>35</v>
@@ -1140,7 +1157,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G13" t="s">
         <v>35</v>
@@ -1163,7 +1180,7 @@
         <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G14" t="s">
         <v>35</v>
@@ -1186,7 +1203,7 @@
         <v>46</v>
       </c>
       <c r="F15" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G15" t="s">
         <v>35</v>
@@ -1209,7 +1226,7 @@
         <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G16" t="s">
         <v>35</v>
@@ -1232,7 +1249,7 @@
         <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G17" t="s">
         <v>35</v>
@@ -1255,7 +1272,7 @@
         <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G18" t="s">
         <v>35</v>
@@ -1278,7 +1295,7 @@
         <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G19" t="s">
         <v>49</v>
@@ -1301,7 +1318,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G20" t="s">
         <v>49</v>
@@ -1324,7 +1341,7 @@
         <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G21" t="s">
         <v>49</v>
@@ -1347,7 +1364,7 @@
         <v>46</v>
       </c>
       <c r="F22" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G22" t="s">
         <v>49</v>
@@ -1370,7 +1387,7 @@
         <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G23" t="s">
         <v>81</v>
@@ -1393,7 +1410,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G24" t="s">
         <v>81</v>
@@ -1416,7 +1433,7 @@
         <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G25" t="s">
         <v>81</v>
@@ -1439,7 +1456,7 @@
         <v>46</v>
       </c>
       <c r="F26" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G26" t="s">
         <v>81</v>
@@ -1455,8 +1472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC760A4F-E344-444D-9B20-4657346E05AF}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1491,7 +1508,7 @@
         <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="D2" t="s">
         <v>93</v>
@@ -1505,7 +1522,7 @@
         <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="D3" t="s">
         <v>93</v>
@@ -1519,7 +1536,7 @@
         <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="D4" t="s">
         <v>93</v>
@@ -1533,7 +1550,7 @@
         <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="D5" t="s">
         <v>93</v>
@@ -1547,10 +1564,10 @@
         <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="D6" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
@@ -1561,10 +1578,10 @@
         <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="D7" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
@@ -1575,10 +1592,10 @@
         <v>63</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="D8" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
@@ -1589,10 +1606,10 @@
         <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
@@ -1603,10 +1620,10 @@
         <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
@@ -1617,10 +1634,10 @@
         <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
@@ -1631,10 +1648,10 @@
         <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
@@ -1645,10 +1662,10 @@
         <v>65</v>
       </c>
       <c r="C13" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
@@ -1659,10 +1676,10 @@
         <v>65</v>
       </c>
       <c r="C14" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
@@ -1673,10 +1690,10 @@
         <v>65</v>
       </c>
       <c r="C15" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
@@ -1687,10 +1704,10 @@
         <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1701,10 +1718,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F39F50C1-EBAF-4FC6-84DD-C074EB80D8AB}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1718,42 +1735,45 @@
     <col min="11" max="11" width="15.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" t="s">
         <v>113</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>114</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>115</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>116</v>
       </c>
-      <c r="H1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I1" t="s">
-        <v>118</v>
-      </c>
-      <c r="J1" t="s">
-        <v>119</v>
-      </c>
-      <c r="K1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1501</v>
       </c>
@@ -1761,7 +1781,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -1787,8 +1807,11 @@
       <c r="K2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1501</v>
       </c>
@@ -1796,7 +1819,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -1822,8 +1845,11 @@
       <c r="K3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1501</v>
       </c>
@@ -1831,7 +1857,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -1857,8 +1883,11 @@
       <c r="K4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1502</v>
       </c>
@@ -1866,7 +1895,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -1892,8 +1921,11 @@
       <c r="K5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1502</v>
       </c>
@@ -1901,7 +1933,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -1927,8 +1959,11 @@
       <c r="K6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1502</v>
       </c>
@@ -1936,7 +1971,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -1962,8 +1997,11 @@
       <c r="K7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>1503</v>
       </c>
@@ -1971,7 +2009,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -1997,8 +2035,11 @@
       <c r="K8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>1503</v>
       </c>
@@ -2006,7 +2047,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -2032,8 +2073,11 @@
       <c r="K9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>1503</v>
       </c>
@@ -2041,7 +2085,7 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -2067,8 +2111,11 @@
       <c r="K10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>1504</v>
       </c>
@@ -2076,7 +2123,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -2102,8 +2149,11 @@
       <c r="K11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>1504</v>
       </c>
@@ -2111,7 +2161,7 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D12">
         <v>3</v>
@@ -2137,8 +2187,11 @@
       <c r="K12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>1504</v>
       </c>
@@ -2146,7 +2199,7 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D13">
         <v>5</v>
@@ -2172,8 +2225,11 @@
       <c r="K13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>1505</v>
       </c>
@@ -2181,7 +2237,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D14">
         <v>20</v>
@@ -2207,8 +2263,11 @@
       <c r="K14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>1506</v>
       </c>
@@ -2216,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D15">
         <v>10</v>
@@ -2242,8 +2301,11 @@
       <c r="K15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1507</v>
       </c>
@@ -2251,7 +2313,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D16">
         <v>30</v>
@@ -2276,6 +2338,9 @@
       </c>
       <c r="K16">
         <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Excels/ItemSheets.xlsx
+++ b/Assets/Resources/Excels/ItemSheets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\sparta_team\3D_TEAM12\Assets\Resources\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC38FC7-9F76-4254-9A8E-018060727298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABD82E5-97D5-4199-8052-5797AF779107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2260" yWindow="0" windowWidth="19340" windowHeight="15280" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemList" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="127">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -469,10 +469,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>scale</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>moveSpeed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -522,6 +518,14 @@
   </si>
   <si>
     <t>RangedSkill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startScale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endScale</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1472,7 +1476,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC760A4F-E344-444D-9B20-4657346E05AF}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -1508,7 +1512,7 @@
         <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D2" t="s">
         <v>93</v>
@@ -1522,7 +1526,7 @@
         <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D3" t="s">
         <v>93</v>
@@ -1536,7 +1540,7 @@
         <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D4" t="s">
         <v>93</v>
@@ -1550,7 +1554,7 @@
         <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D5" t="s">
         <v>93</v>
@@ -1564,10 +1568,10 @@
         <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
@@ -1578,10 +1582,10 @@
         <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
@@ -1592,10 +1596,10 @@
         <v>63</v>
       </c>
       <c r="C8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
@@ -1718,10 +1722,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F39F50C1-EBAF-4FC6-84DD-C074EB80D8AB}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1730,12 +1734,12 @@
     <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.58203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.58203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1743,7 +1747,7 @@
         <v>95</v>
       </c>
       <c r="C1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D1" t="s">
         <v>109</v>
@@ -1755,25 +1759,28 @@
         <v>111</v>
       </c>
       <c r="G1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I1" t="s">
         <v>112</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>113</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>114</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>115</v>
       </c>
-      <c r="K1" t="s">
-        <v>116</v>
-      </c>
-      <c r="L1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1501</v>
       </c>
@@ -1796,22 +1803,25 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
         <v>80</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>0.1</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>1</v>
       </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1501</v>
       </c>
@@ -1834,22 +1844,25 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
         <v>100</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0.1</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>1</v>
       </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1501</v>
       </c>
@@ -1872,22 +1885,25 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
         <v>120</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>0.1</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>1</v>
       </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1502</v>
       </c>
@@ -1910,22 +1926,25 @@
         <v>1.2</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
         <v>80</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>0.1</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>1</v>
       </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1502</v>
       </c>
@@ -1948,22 +1967,25 @@
         <v>1.2</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
         <v>100</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>0.1</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>1</v>
       </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1502</v>
       </c>
@@ -1986,22 +2008,25 @@
         <v>1.2</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
         <v>120</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>0.1</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>1</v>
       </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>1503</v>
       </c>
@@ -2024,22 +2049,25 @@
         <v>1.5</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
         <v>80</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>0.1</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>1</v>
       </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>1503</v>
       </c>
@@ -2062,22 +2090,25 @@
         <v>1.5</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
         <v>100</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>0.1</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>1</v>
       </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>1503</v>
       </c>
@@ -2100,22 +2131,25 @@
         <v>1.5</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
         <v>120</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>0.1</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>1</v>
       </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>1504</v>
       </c>
@@ -2138,22 +2172,25 @@
         <v>2</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
         <v>80</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>0.1</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>1</v>
       </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>1504</v>
       </c>
@@ -2176,22 +2213,25 @@
         <v>2</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
         <v>100</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>0.1</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>1</v>
       </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>1504</v>
       </c>
@@ -2214,22 +2254,25 @@
         <v>2</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
         <v>120</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>0.1</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>1</v>
       </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>1505</v>
       </c>
@@ -2252,22 +2295,25 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
         <v>400</v>
       </c>
-      <c r="J14">
-        <v>0.1</v>
-      </c>
       <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
         <v>2</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>1506</v>
       </c>
@@ -2290,22 +2336,25 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I15">
+        <v>10</v>
+      </c>
+      <c r="J15">
         <v>200</v>
       </c>
-      <c r="J15">
-        <v>0.1</v>
-      </c>
       <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
         <v>2</v>
       </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1507</v>
       </c>
@@ -2328,18 +2377,21 @@
         <v>1</v>
       </c>
       <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
         <v>4</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>500</v>
-      </c>
-      <c r="J16">
-        <v>0.1</v>
       </c>
       <c r="K16">
         <v>2</v>
       </c>
       <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Resources/Excels/ItemSheets.xlsx
+++ b/Assets/Resources/Excels/ItemSheets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\sparta_team\3D_TEAM12\Assets\Resources\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABD82E5-97D5-4199-8052-5797AF779107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8D0290-8A91-42DF-BE2B-E2421DB24C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2260" yWindow="0" windowWidth="19340" windowHeight="15280" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45375" yWindow="3300" windowWidth="19335" windowHeight="15285" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemList" sheetId="1" r:id="rId1"/>
@@ -415,15 +415,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Projectiles/ComboAttack1</t>
-  </si>
-  <si>
-    <t>/Projectiles/ComboAttack2</t>
-  </si>
-  <si>
-    <t>/Projectiles/ComboAttack3</t>
-  </si>
-  <si>
     <t>/DropItems/Potion</t>
   </si>
   <si>
@@ -445,18 +436,6 @@
     <t>/Equips/Accessory</t>
   </si>
   <si>
-    <t>/Projectiles/MeleeAttack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Projectiles/RangedAttack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Projectiles/MagicAttack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>manaCost</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -527,6 +506,24 @@
   <si>
     <t>endScale</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Projectiles/Player/ComboAttack1</t>
+  </si>
+  <si>
+    <t>/Projectiles/Player/ComboAttack2</t>
+  </si>
+  <si>
+    <t>/Projectiles/Player/ComboAttack3</t>
+  </si>
+  <si>
+    <t>/Projectiles/Player/MeleeAttack</t>
+  </si>
+  <si>
+    <t>/Projectiles/Player/RangedAttack</t>
+  </si>
+  <si>
+    <t>/Projectiles/Player/MagicAttack</t>
   </si>
 </sst>
 </file>
@@ -854,7 +851,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -908,7 +905,7 @@
         <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G2" t="s">
         <v>29</v>
@@ -931,7 +928,7 @@
         <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G3" t="s">
         <v>30</v>
@@ -954,7 +951,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G4" t="s">
         <v>31</v>
@@ -977,7 +974,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G5" t="s">
         <v>32</v>
@@ -1000,7 +997,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G6" t="s">
         <v>33</v>
@@ -1023,7 +1020,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G7" t="s">
         <v>34</v>
@@ -1046,7 +1043,7 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G8" t="s">
         <v>72</v>
@@ -1069,7 +1066,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G9" t="s">
         <v>72</v>
@@ -1092,7 +1089,7 @@
         <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G10" t="s">
         <v>72</v>
@@ -1115,7 +1112,7 @@
         <v>46</v>
       </c>
       <c r="F11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G11" t="s">
         <v>72</v>
@@ -1138,7 +1135,7 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G12" t="s">
         <v>35</v>
@@ -1161,7 +1158,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G13" t="s">
         <v>35</v>
@@ -1184,7 +1181,7 @@
         <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G14" t="s">
         <v>35</v>
@@ -1207,7 +1204,7 @@
         <v>46</v>
       </c>
       <c r="F15" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G15" t="s">
         <v>35</v>
@@ -1230,7 +1227,7 @@
         <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G16" t="s">
         <v>35</v>
@@ -1253,7 +1250,7 @@
         <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G17" t="s">
         <v>35</v>
@@ -1276,7 +1273,7 @@
         <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G18" t="s">
         <v>35</v>
@@ -1299,7 +1296,7 @@
         <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G19" t="s">
         <v>49</v>
@@ -1322,7 +1319,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G20" t="s">
         <v>49</v>
@@ -1345,7 +1342,7 @@
         <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G21" t="s">
         <v>49</v>
@@ -1368,7 +1365,7 @@
         <v>46</v>
       </c>
       <c r="F22" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G22" t="s">
         <v>49</v>
@@ -1391,7 +1388,7 @@
         <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G23" t="s">
         <v>81</v>
@@ -1414,7 +1411,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G24" t="s">
         <v>81</v>
@@ -1437,7 +1434,7 @@
         <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G25" t="s">
         <v>81</v>
@@ -1460,7 +1457,7 @@
         <v>46</v>
       </c>
       <c r="F26" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G26" t="s">
         <v>81</v>
@@ -1512,7 +1509,7 @@
         <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
         <v>93</v>
@@ -1526,7 +1523,7 @@
         <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D3" t="s">
         <v>93</v>
@@ -1540,7 +1537,7 @@
         <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D4" t="s">
         <v>93</v>
@@ -1554,7 +1551,7 @@
         <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D5" t="s">
         <v>93</v>
@@ -1568,10 +1565,10 @@
         <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D6" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
@@ -1582,10 +1579,10 @@
         <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
@@ -1596,10 +1593,10 @@
         <v>63</v>
       </c>
       <c r="C8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D8" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
@@ -1610,7 +1607,7 @@
         <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D9" t="s">
         <v>94</v>
@@ -1624,7 +1621,7 @@
         <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D10" t="s">
         <v>94</v>
@@ -1638,7 +1635,7 @@
         <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D11" t="s">
         <v>94</v>
@@ -1652,7 +1649,7 @@
         <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D12" t="s">
         <v>94</v>
@@ -1666,7 +1663,7 @@
         <v>65</v>
       </c>
       <c r="C13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D13" t="s">
         <v>94</v>
@@ -1680,7 +1677,7 @@
         <v>65</v>
       </c>
       <c r="C14" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D14" t="s">
         <v>94</v>
@@ -1694,7 +1691,7 @@
         <v>65</v>
       </c>
       <c r="C15" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D15" t="s">
         <v>94</v>
@@ -1708,7 +1705,7 @@
         <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D16" t="s">
         <v>94</v>
@@ -1725,7 +1722,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1747,37 +1744,37 @@
         <v>95</v>
       </c>
       <c r="C1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L1" t="s">
         <v>109</v>
       </c>
-      <c r="E1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G1" t="s">
-        <v>125</v>
-      </c>
-      <c r="H1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I1" t="s">
-        <v>112</v>
-      </c>
-      <c r="J1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K1" t="s">
-        <v>114</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>115</v>
-      </c>
-      <c r="M1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
@@ -1788,7 +1785,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -1829,7 +1826,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -1870,7 +1867,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -1911,7 +1908,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -1952,7 +1949,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -1993,7 +1990,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -2034,7 +2031,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -2075,7 +2072,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -2116,7 +2113,7 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -2157,7 +2154,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -2198,7 +2195,7 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="D12">
         <v>3</v>
@@ -2239,7 +2236,7 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="D13">
         <v>5</v>
@@ -2280,7 +2277,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="D14">
         <v>20</v>
@@ -2321,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="D15">
         <v>10</v>
@@ -2362,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="D16">
         <v>30</v>

--- a/Assets/Resources/Excels/ItemSheets.xlsx
+++ b/Assets/Resources/Excels/ItemSheets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\sparta_team\3D_TEAM12\Assets\Resources\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8D0290-8A91-42DF-BE2B-E2421DB24C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D502267F-F4E3-4F92-9D33-20D5BA67048C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45375" yWindow="3300" windowWidth="19335" windowHeight="15285" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemList" sheetId="1" r:id="rId1"/>
@@ -1722,7 +1722,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1791,7 +1791,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>0.25</v>
@@ -1832,7 +1832,7 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>0.25</v>
@@ -1873,7 +1873,7 @@
         <v>5</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F4">
         <v>0.5</v>
@@ -1914,7 +1914,7 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>0.25</v>
@@ -1955,7 +1955,7 @@
         <v>3</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>0.25</v>
@@ -1996,7 +1996,7 @@
         <v>5</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F7">
         <v>0.5</v>
@@ -2037,7 +2037,7 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>0.25</v>
@@ -2078,7 +2078,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>0.25</v>
@@ -2119,7 +2119,7 @@
         <v>5</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F10">
         <v>0.5</v>
@@ -2160,7 +2160,7 @@
         <v>3</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>0.25</v>
@@ -2201,7 +2201,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>0.25</v>
@@ -2242,7 +2242,7 @@
         <v>5</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F13">
         <v>0.5</v>

--- a/Assets/Resources/Excels/ItemSheets.xlsx
+++ b/Assets/Resources/Excels/ItemSheets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\sparta_team\3D_TEAM12\Assets\Resources\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D502267F-F4E3-4F92-9D33-20D5BA67048C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A1052B-84DB-4FBA-97E4-B81DFF7015DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1722,7 +1722,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1794,7 +1794,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -1809,7 +1809,7 @@
         <v>80</v>
       </c>
       <c r="K2">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -1835,7 +1835,7 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -1850,7 +1850,7 @@
         <v>100</v>
       </c>
       <c r="K3">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -1876,7 +1876,7 @@
         <v>1.5</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -1891,7 +1891,7 @@
         <v>120</v>
       </c>
       <c r="K4">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -1917,7 +1917,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="G5">
         <v>1.2</v>
@@ -1932,7 +1932,7 @@
         <v>80</v>
       </c>
       <c r="K5">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -1958,7 +1958,7 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="G6">
         <v>1.2</v>
@@ -1973,7 +1973,7 @@
         <v>100</v>
       </c>
       <c r="K6">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -1999,7 +1999,7 @@
         <v>1.5</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="G7">
         <v>1.2</v>
@@ -2014,7 +2014,7 @@
         <v>120</v>
       </c>
       <c r="K7">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -2040,7 +2040,7 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="G8">
         <v>1.5</v>
@@ -2055,7 +2055,7 @@
         <v>80</v>
       </c>
       <c r="K8">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -2081,7 +2081,7 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="G9">
         <v>1.5</v>
@@ -2096,7 +2096,7 @@
         <v>100</v>
       </c>
       <c r="K9">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -2122,7 +2122,7 @@
         <v>1.5</v>
       </c>
       <c r="F10">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="G10">
         <v>1.5</v>
@@ -2137,7 +2137,7 @@
         <v>120</v>
       </c>
       <c r="K10">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -2163,7 +2163,7 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -2178,7 +2178,7 @@
         <v>80</v>
       </c>
       <c r="K11">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -2204,7 +2204,7 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -2219,7 +2219,7 @@
         <v>100</v>
       </c>
       <c r="K12">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -2245,7 +2245,7 @@
         <v>1.5</v>
       </c>
       <c r="F13">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -2260,7 +2260,7 @@
         <v>120</v>
       </c>
       <c r="K13">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -2286,13 +2286,13 @@
         <v>10</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H14">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -2371,10 +2371,10 @@
         <v>3</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I16">
         <v>4</v>

--- a/Assets/Resources/Excels/ItemSheets.xlsx
+++ b/Assets/Resources/Excels/ItemSheets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\sparta_team\3D_TEAM12\Assets\Resources\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A1052B-84DB-4FBA-97E4-B81DFF7015DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C60658-0DFB-4969-8420-FB87169D23D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="130">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -524,6 +524,18 @@
   </si>
   <si>
     <t>/Projectiles/Player/MagicAttack</t>
+  </si>
+  <si>
+    <t>numberOfProjectilePerShot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multipleProjectilesAngle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hitConditionRemovalCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1719,10 +1731,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F39F50C1-EBAF-4FC6-84DD-C074EB80D8AB}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1734,9 +1746,12 @@
     <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.58203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.4140625" customWidth="1"/>
+    <col min="15" max="15" width="13.33203125" customWidth="1"/>
+    <col min="16" max="16" width="13.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1776,8 +1791,17 @@
       <c r="M1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O1" t="s">
+        <v>128</v>
+      </c>
+      <c r="P1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1501</v>
       </c>
@@ -1817,8 +1841,17 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1501</v>
       </c>
@@ -1858,8 +1891,17 @@
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1501</v>
       </c>
@@ -1899,8 +1941,17 @@
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1502</v>
       </c>
@@ -1940,8 +1991,17 @@
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1502</v>
       </c>
@@ -1981,8 +2041,17 @@
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1502</v>
       </c>
@@ -2022,8 +2091,17 @@
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>1503</v>
       </c>
@@ -2063,8 +2141,17 @@
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>1503</v>
       </c>
@@ -2104,8 +2191,17 @@
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>1503</v>
       </c>
@@ -2145,8 +2241,17 @@
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>1504</v>
       </c>
@@ -2186,8 +2291,17 @@
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>1504</v>
       </c>
@@ -2227,8 +2341,17 @@
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>1504</v>
       </c>
@@ -2268,8 +2391,17 @@
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>1505</v>
       </c>
@@ -2307,10 +2439,19 @@
         <v>2</v>
       </c>
       <c r="M14">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>1506</v>
       </c>
@@ -2336,7 +2477,7 @@
         <v>1</v>
       </c>
       <c r="I15">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J15">
         <v>200</v>
@@ -2350,8 +2491,17 @@
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N15">
+        <v>5</v>
+      </c>
+      <c r="O15">
+        <v>45</v>
+      </c>
+      <c r="P15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1507</v>
       </c>
@@ -2368,7 +2518,7 @@
         <v>15</v>
       </c>
       <c r="F16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -2377,19 +2527,28 @@
         <v>4</v>
       </c>
       <c r="I16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J16">
         <v>500</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
         <v>2</v>
       </c>
       <c r="M16">
         <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Excels/ItemSheets.xlsx
+++ b/Assets/Resources/Excels/ItemSheets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\sparta_team\3D_TEAM12\Assets\Resources\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C60658-0DFB-4969-8420-FB87169D23D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474863B0-E730-48FE-9753-3D25DC95CF37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="55680" yWindow="2640" windowWidth="19335" windowHeight="15285" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemList" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="131">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -534,7 +534,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hitConditionRemovalCount</t>
+    <t>knockbackDuration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pierceCount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1731,10 +1735,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F39F50C1-EBAF-4FC6-84DD-C074EB80D8AB}">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1745,13 +1749,14 @@
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.58203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.4140625" customWidth="1"/>
-    <col min="15" max="15" width="13.33203125" customWidth="1"/>
-    <col min="16" max="16" width="13.4140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.4140625" customWidth="1"/>
+    <col min="16" max="16" width="13.33203125" customWidth="1"/>
+    <col min="17" max="17" width="13.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1789,19 +1794,22 @@
         <v>109</v>
       </c>
       <c r="M1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N1" t="s">
         <v>115</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>127</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>128</v>
       </c>
-      <c r="P1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1501</v>
       </c>
@@ -1839,19 +1847,22 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1501</v>
       </c>
@@ -1889,19 +1900,22 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1501</v>
       </c>
@@ -1939,19 +1953,22 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1502</v>
       </c>
@@ -1989,19 +2006,22 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1502</v>
       </c>
@@ -2039,19 +2059,22 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1502</v>
       </c>
@@ -2089,19 +2112,22 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>1503</v>
       </c>
@@ -2139,19 +2165,22 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>1503</v>
       </c>
@@ -2189,19 +2218,22 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>1503</v>
       </c>
@@ -2239,19 +2271,22 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>1504</v>
       </c>
@@ -2289,19 +2324,22 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>1504</v>
       </c>
@@ -2339,19 +2377,22 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>1504</v>
       </c>
@@ -2389,19 +2430,22 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>1505</v>
       </c>
@@ -2439,19 +2483,22 @@
         <v>2</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="N14">
         <v>1</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>1506</v>
       </c>
@@ -2489,19 +2536,22 @@
         <v>2</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
         <v>5</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>45</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1507</v>
       </c>
@@ -2539,15 +2589,18 @@
         <v>2</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N16">
         <v>1</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Resources/Excels/ItemSheets.xlsx
+++ b/Assets/Resources/Excels/ItemSheets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\sparta_team\3D_TEAM12\Assets\Resources\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474863B0-E730-48FE-9753-3D25DC95CF37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431EB4F5-BADC-45BB-9694-C36700F4EAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="55680" yWindow="2640" windowWidth="19335" windowHeight="15285" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemList" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="132">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -539,6 +539,10 @@
   </si>
   <si>
     <t>pierceCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CooltimeReduction</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -867,7 +871,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1737,8 +1741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F39F50C1-EBAF-4FC6-84DD-C074EB80D8AB}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2612,16 +2616,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26320459-E182-4282-B0CD-FC10DCCE71E9}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="11.9140625" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -2766,13 +2770,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>1601</v>
+        <v>1507</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>131</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>0.1</v>
       </c>
       <c r="D11" t="s">
         <v>68</v>
@@ -2780,13 +2784,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="B12" t="s">
         <v>64</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
         <v>68</v>
@@ -2794,13 +2798,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="B13" t="s">
         <v>64</v>
       </c>
       <c r="C13">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
         <v>68</v>
@@ -2811,27 +2815,27 @@
         <v>1603</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="C14">
-        <v>1.2</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="C15">
-        <v>50</v>
+        <v>1.2</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
@@ -2839,13 +2843,13 @@
         <v>1604</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="C16">
-        <v>1.5</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
@@ -2853,7 +2857,7 @@
         <v>1604</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="C17">
         <v>1.5</v>
@@ -2864,13 +2868,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>1701</v>
+        <v>1604</v>
       </c>
       <c r="B18" t="s">
         <v>69</v>
       </c>
       <c r="C18">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="D18" t="s">
         <v>66</v>
@@ -2881,7 +2885,7 @@
         <v>1701</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C19">
         <v>1.2</v>
@@ -2892,13 +2896,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C20">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="D20" t="s">
         <v>66</v>
@@ -2909,7 +2913,7 @@
         <v>1702</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C21">
         <v>1.5</v>
@@ -2920,13 +2924,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="D22" t="s">
         <v>66</v>
@@ -2937,7 +2941,7 @@
         <v>1703</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -2951,10 +2955,10 @@
         <v>1703</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="C24">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="D24" t="s">
         <v>66</v>
@@ -2962,13 +2966,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="C25">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="D25" t="s">
         <v>66</v>
@@ -2979,7 +2983,7 @@
         <v>1704</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C26">
         <v>2.5</v>
@@ -2993,10 +2997,10 @@
         <v>1704</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="C27">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="D27" t="s">
         <v>66</v>
@@ -3007,7 +3011,7 @@
         <v>1704</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28">
         <v>1.5</v>
@@ -3021,7 +3025,7 @@
         <v>1704</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C29">
         <v>1.5</v>
@@ -3035,12 +3039,40 @@
         <v>1704</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="C30">
         <v>1.5</v>
       </c>
       <c r="D30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>1704</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31">
+        <v>1.5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>1704</v>
+      </c>
+      <c r="B32" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32">
+        <v>1.5</v>
+      </c>
+      <c r="D32" t="s">
         <v>66</v>
       </c>
     </row>

--- a/Assets/Resources/Excels/ItemSheets.xlsx
+++ b/Assets/Resources/Excels/ItemSheets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\sparta_team\3D_TEAM12\Assets\Resources\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431EB4F5-BADC-45BB-9694-C36700F4EAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C68928-B3DF-4A2C-9995-3CAFDE130F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="48315" yWindow="2820" windowWidth="19335" windowHeight="15285" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemList" sheetId="1" r:id="rId1"/>
@@ -1741,8 +1741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F39F50C1-EBAF-4FC6-84DD-C074EB80D8AB}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1824,7 +1824,7 @@
         <v>121</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1877,7 +1877,7 @@
         <v>122</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1930,7 +1930,7 @@
         <v>123</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>1.5</v>
@@ -1983,7 +1983,7 @@
         <v>121</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -2036,7 +2036,7 @@
         <v>122</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -2089,7 +2089,7 @@
         <v>123</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>1.5</v>
@@ -2142,7 +2142,7 @@
         <v>121</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -2195,7 +2195,7 @@
         <v>122</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2248,7 +2248,7 @@
         <v>123</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>1.5</v>
@@ -2301,7 +2301,7 @@
         <v>121</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -2354,7 +2354,7 @@
         <v>122</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -2407,7 +2407,7 @@
         <v>123</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <v>1.5</v>
@@ -2460,7 +2460,7 @@
         <v>124</v>
       </c>
       <c r="D14">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E14">
         <v>10</v>
@@ -2513,7 +2513,7 @@
         <v>125</v>
       </c>
       <c r="D15">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E15">
         <v>5</v>
@@ -2566,7 +2566,7 @@
         <v>126</v>
       </c>
       <c r="D16">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="E16">
         <v>15</v>
@@ -2618,7 +2618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26320459-E182-4282-B0CD-FC10DCCE71E9}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Resources/Excels/ItemSheets.xlsx
+++ b/Assets/Resources/Excels/ItemSheets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\sparta_team\3D_TEAM12\Assets\Resources\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C68928-B3DF-4A2C-9995-3CAFDE130F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE3FD10-1343-43BE-AEBA-8A278FBDE951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48315" yWindow="2820" windowWidth="19335" windowHeight="15285" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51135" yWindow="2955" windowWidth="23220" windowHeight="15285" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemList" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="135">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -543,6 +543,18 @@
   </si>
   <si>
     <t>CooltimeReduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MpRegen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HpRegen</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1741,7 +1753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F39F50C1-EBAF-4FC6-84DD-C074EB80D8AB}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -2616,10 +2628,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26320459-E182-4282-B0CD-FC10DCCE71E9}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2742,13 +2754,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
       <c r="C9">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
         <v>68</v>
@@ -2756,7 +2768,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -2770,27 +2782,27 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="B11" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="C11">
-        <v>0.1</v>
+        <v>1.5</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>1601</v>
+        <v>1507</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
         <v>68</v>
@@ -2798,13 +2810,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>1602</v>
+        <v>1507</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>131</v>
       </c>
       <c r="C13">
-        <v>15</v>
+        <v>0.1</v>
       </c>
       <c r="D13" t="s">
         <v>68</v>
@@ -2812,41 +2824,41 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>1603</v>
+        <v>1507</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>132</v>
       </c>
       <c r="C14">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="C15">
-        <v>1.2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="B16" t="s">
         <v>64</v>
       </c>
       <c r="C16">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
         <v>68</v>
@@ -2854,27 +2866,27 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="C17">
-        <v>1.5</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="C18">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="D18" t="s">
         <v>66</v>
@@ -2882,27 +2894,27 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>1701</v>
+        <v>1604</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C19">
-        <v>1.2</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>1701</v>
+        <v>1604</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="C20">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="D20" t="s">
         <v>66</v>
@@ -2910,7 +2922,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>1702</v>
+        <v>1604</v>
       </c>
       <c r="B21" t="s">
         <v>69</v>
@@ -2924,13 +2936,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C22">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="D22" t="s">
         <v>66</v>
@@ -2938,13 +2950,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="D23" t="s">
         <v>66</v>
@@ -2952,13 +2964,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="D24" t="s">
         <v>66</v>
@@ -2966,13 +2978,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="C25">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="D25" t="s">
         <v>66</v>
@@ -2980,13 +2992,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="B26" t="s">
         <v>69</v>
       </c>
       <c r="C26">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="s">
         <v>66</v>
@@ -2994,13 +3006,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="B27" t="s">
         <v>70</v>
       </c>
       <c r="C27">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="s">
         <v>66</v>
@@ -3008,13 +3020,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="D28" t="s">
         <v>66</v>
@@ -3025,10 +3037,10 @@
         <v>1704</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="C29">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="D29" t="s">
         <v>66</v>
@@ -3039,10 +3051,10 @@
         <v>1704</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="C30">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="D30" t="s">
         <v>66</v>
@@ -3053,7 +3065,7 @@
         <v>1704</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="C31">
         <v>1.5</v>
@@ -3067,12 +3079,68 @@
         <v>1704</v>
       </c>
       <c r="B32" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="C32">
         <v>1.5</v>
       </c>
       <c r="D32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>1704</v>
+      </c>
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33">
+        <v>1.5</v>
+      </c>
+      <c r="D33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>1704</v>
+      </c>
+      <c r="B34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34">
+        <v>1.5</v>
+      </c>
+      <c r="D34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>1704</v>
+      </c>
+      <c r="B35" t="s">
+        <v>131</v>
+      </c>
+      <c r="C35">
+        <v>1.5</v>
+      </c>
+      <c r="D35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>1704</v>
+      </c>
+      <c r="B36" t="s">
+        <v>131</v>
+      </c>
+      <c r="C36">
+        <v>1.5</v>
+      </c>
+      <c r="D36" t="s">
         <v>66</v>
       </c>
     </row>

--- a/Assets/Resources/Excels/ItemSheets.xlsx
+++ b/Assets/Resources/Excels/ItemSheets.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\sparta_team\3D_TEAM12\Assets\Resources\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ajin\Desktop\Unity\Unity_project\3D_ Team12\3D_TEAM12\Assets\Resources\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431EB4F5-BADC-45BB-9694-C36700F4EAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BAD9BBD-0096-4545-BC03-040EB7D051EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemList" sheetId="1" r:id="rId1"/>
@@ -870,22 +870,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.59765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="49.08203125" customWidth="1"/>
+    <col min="5" max="5" width="18.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -908,7 +908,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -931,7 +931,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -954,7 +954,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -977,7 +977,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>1201</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>1202</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>1203</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>1204</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>1501</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>1502</v>
       </c>
@@ -1184,7 +1184,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>1503</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>1504</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>1505</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>1506</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>1507</v>
       </c>
@@ -1299,7 +1299,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>1601</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>1602</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>1603</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>1604</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>1701</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>1702</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>1703</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>1704</v>
       </c>
@@ -1497,17 +1497,17 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.09765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.19921875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1521,7 +1521,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1501</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1502</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1503</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1504</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1505</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>1506</v>
       </c>
@@ -1605,7 +1605,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>1507</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>1601</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>1602</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>1603</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>1604</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>1701</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>1702</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>1703</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>1704</v>
       </c>
@@ -1745,22 +1745,22 @@
       <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.58203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.59765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.296875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.4140625" customWidth="1"/>
-    <col min="16" max="16" width="13.33203125" customWidth="1"/>
-    <col min="17" max="17" width="13.4140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.3984375" customWidth="1"/>
+    <col min="16" max="16" width="13.296875" customWidth="1"/>
+    <col min="17" max="17" width="13.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1501</v>
       </c>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1501</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1501</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1502</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1502</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>1502</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>1503</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>1503</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>1503</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>1504</v>
       </c>
@@ -2343,7 +2343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>1504</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>1504</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>1505</v>
       </c>
@@ -2502,7 +2502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>1506</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>1507</v>
       </c>
@@ -2618,17 +2618,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26320459-E182-4282-B0CD-FC10DCCE71E9}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.9140625" customWidth="1"/>
-    <col min="2" max="2" width="17.4140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.8984375" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -2642,7 +2642,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1501</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1502</v>
       </c>
@@ -2670,7 +2670,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1503</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1503</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1504</v>
       </c>
@@ -2712,7 +2712,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>1504</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>1505</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>1506</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>1507</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>1507</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>1601</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>1602</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>1603</v>
       </c>
@@ -2824,7 +2824,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>1603</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>1604</v>
       </c>
@@ -2852,7 +2852,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>1604</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>1604</v>
       </c>
@@ -2880,7 +2880,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>1701</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>1701</v>
       </c>
@@ -2908,7 +2908,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>1702</v>
       </c>
@@ -2922,7 +2922,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>1702</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>1703</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>1703</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>1703</v>
       </c>
@@ -2978,7 +2978,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>1704</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>1704</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>1704</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>1704</v>
       </c>
@@ -3034,7 +3034,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>1704</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>1704</v>
       </c>
@@ -3062,7 +3062,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>1704</v>
       </c>
@@ -3090,14 +3090,14 @@
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -3131,7 +3131,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -3182,7 +3182,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>1006</v>
       </c>

--- a/Assets/Resources/Excels/ItemSheets.xlsx
+++ b/Assets/Resources/Excels/ItemSheets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\sparta_team\3D_TEAM12\Assets\Resources\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE3FD10-1343-43BE-AEBA-8A278FBDE951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507C6004-3464-4FA5-A463-D7540C169183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51135" yWindow="2955" windowWidth="23220" windowHeight="15285" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51135" yWindow="2955" windowWidth="23220" windowHeight="15285" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemList" sheetId="1" r:id="rId1"/>
@@ -63,10 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>consumeType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>amount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -555,6 +551,10 @@
   </si>
   <si>
     <t>HpRegen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>consumableType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -883,7 +883,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="D2" sqref="D2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -911,10 +911,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -925,22 +925,22 @@
         <v>1001</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -948,22 +948,22 @@
         <v>1002</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -971,22 +971,22 @@
         <v>1003</v>
       </c>
       <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -994,22 +994,22 @@
         <v>1004</v>
       </c>
       <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -1017,22 +1017,22 @@
         <v>1005</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
@@ -1040,22 +1040,22 @@
         <v>1006</v>
       </c>
       <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
@@ -1063,22 +1063,22 @@
         <v>1201</v>
       </c>
       <c r="B8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" t="s">
         <v>71</v>
-      </c>
-      <c r="C8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" t="s">
-        <v>97</v>
-      </c>
-      <c r="G8" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
@@ -1086,22 +1086,22 @@
         <v>1202</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" t="s">
         <v>71</v>
-      </c>
-      <c r="E9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" t="s">
-        <v>97</v>
-      </c>
-      <c r="G9" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
@@ -1109,22 +1109,22 @@
         <v>1203</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" t="s">
         <v>71</v>
-      </c>
-      <c r="E10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" t="s">
-        <v>97</v>
-      </c>
-      <c r="G10" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
@@ -1132,22 +1132,22 @@
         <v>1204</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" t="s">
         <v>71</v>
-      </c>
-      <c r="E11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" t="s">
-        <v>97</v>
-      </c>
-      <c r="G11" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
@@ -1155,22 +1155,22 @@
         <v>1501</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
@@ -1178,22 +1178,22 @@
         <v>1502</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
@@ -1201,22 +1201,22 @@
         <v>1503</v>
       </c>
       <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
         <v>39</v>
       </c>
-      <c r="C14" t="s">
-        <v>40</v>
-      </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
@@ -1224,22 +1224,22 @@
         <v>1504</v>
       </c>
       <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
         <v>41</v>
       </c>
-      <c r="C15" t="s">
-        <v>42</v>
-      </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
@@ -1247,22 +1247,22 @@
         <v>1505</v>
       </c>
       <c r="B16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" t="s">
         <v>86</v>
       </c>
-      <c r="C16" t="s">
-        <v>87</v>
-      </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
@@ -1270,22 +1270,22 @@
         <v>1506</v>
       </c>
       <c r="B17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" t="s">
         <v>88</v>
       </c>
-      <c r="C17" t="s">
-        <v>89</v>
-      </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
@@ -1293,22 +1293,22 @@
         <v>1507</v>
       </c>
       <c r="B18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" t="s">
         <v>90</v>
       </c>
-      <c r="C18" t="s">
-        <v>91</v>
-      </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
@@ -1316,22 +1316,22 @@
         <v>1601</v>
       </c>
       <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
         <v>47</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" t="s">
         <v>48</v>
-      </c>
-      <c r="D19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" t="s">
-        <v>99</v>
-      </c>
-      <c r="G19" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
@@ -1339,22 +1339,22 @@
         <v>1602</v>
       </c>
       <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" t="s">
         <v>50</v>
       </c>
-      <c r="C20" t="s">
-        <v>51</v>
-      </c>
       <c r="D20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
@@ -1362,22 +1362,22 @@
         <v>1603</v>
       </c>
       <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" t="s">
         <v>52</v>
       </c>
-      <c r="C21" t="s">
-        <v>53</v>
-      </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
@@ -1385,22 +1385,22 @@
         <v>1604</v>
       </c>
       <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" t="s">
         <v>54</v>
       </c>
-      <c r="C22" t="s">
-        <v>55</v>
-      </c>
       <c r="D22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
@@ -1408,22 +1408,22 @@
         <v>1701</v>
       </c>
       <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s">
         <v>56</v>
       </c>
-      <c r="C23" t="s">
-        <v>57</v>
-      </c>
       <c r="D23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
@@ -1431,22 +1431,22 @@
         <v>1702</v>
       </c>
       <c r="B24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" t="s">
         <v>59</v>
       </c>
-      <c r="C24" t="s">
-        <v>60</v>
-      </c>
       <c r="D24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
@@ -1454,22 +1454,22 @@
         <v>1703</v>
       </c>
       <c r="B25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" t="s">
         <v>61</v>
       </c>
-      <c r="C25" t="s">
-        <v>62</v>
-      </c>
       <c r="D25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
@@ -1477,22 +1477,22 @@
         <v>1704</v>
       </c>
       <c r="B26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" t="s">
         <v>82</v>
       </c>
-      <c r="C26" t="s">
-        <v>83</v>
-      </c>
       <c r="D26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1524,13 +1524,13 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -1538,13 +1538,13 @@
         <v>1501</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -1552,13 +1552,13 @@
         <v>1502</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -1566,13 +1566,13 @@
         <v>1503</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
@@ -1580,13 +1580,13 @@
         <v>1504</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
@@ -1594,13 +1594,13 @@
         <v>1505</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
@@ -1608,13 +1608,13 @@
         <v>1506</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
@@ -1622,13 +1622,13 @@
         <v>1507</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
@@ -1636,13 +1636,13 @@
         <v>1601</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
@@ -1650,13 +1650,13 @@
         <v>1602</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
@@ -1664,13 +1664,13 @@
         <v>1603</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
@@ -1678,13 +1678,13 @@
         <v>1604</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
@@ -1692,13 +1692,13 @@
         <v>1701</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
@@ -1706,13 +1706,13 @@
         <v>1702</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
@@ -1720,13 +1720,13 @@
         <v>1703</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
@@ -1734,13 +1734,13 @@
         <v>1704</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1777,52 +1777,52 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" t="s">
         <v>103</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>104</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1" t="s">
         <v>105</v>
       </c>
-      <c r="G1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>106</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>107</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>108</v>
       </c>
-      <c r="L1" t="s">
-        <v>109</v>
-      </c>
       <c r="M1" t="s">
+        <v>128</v>
+      </c>
+      <c r="N1" t="s">
+        <v>114</v>
+      </c>
+      <c r="O1" t="s">
+        <v>126</v>
+      </c>
+      <c r="P1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q1" t="s">
         <v>129</v>
-      </c>
-      <c r="N1" t="s">
-        <v>115</v>
-      </c>
-      <c r="O1" t="s">
-        <v>127</v>
-      </c>
-      <c r="P1" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.45">
@@ -1833,7 +1833,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -1886,7 +1886,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D3">
         <v>10</v>
@@ -1939,7 +1939,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D4">
         <v>15</v>
@@ -1992,7 +1992,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -2045,7 +2045,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D6">
         <v>10</v>
@@ -2098,7 +2098,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D7">
         <v>15</v>
@@ -2151,7 +2151,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D8">
         <v>10</v>
@@ -2204,7 +2204,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D9">
         <v>10</v>
@@ -2257,7 +2257,7 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D10">
         <v>15</v>
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -2363,7 +2363,7 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D12">
         <v>10</v>
@@ -2416,7 +2416,7 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D13">
         <v>15</v>
@@ -2469,7 +2469,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D14">
         <v>40</v>
@@ -2522,7 +2522,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D15">
         <v>25</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D16">
         <v>55</v>
@@ -2630,7 +2630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26320459-E182-4282-B0CD-FC10DCCE71E9}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -2645,13 +2645,13 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -2659,13 +2659,13 @@
         <v>1501</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -2673,13 +2673,13 @@
         <v>1502</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3">
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -2687,13 +2687,13 @@
         <v>1503</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4">
         <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
@@ -2701,13 +2701,13 @@
         <v>1503</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5">
         <v>1.1000000000000001</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
@@ -2715,13 +2715,13 @@
         <v>1504</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6">
         <v>100</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
@@ -2729,13 +2729,13 @@
         <v>1504</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>1.5</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
@@ -2743,13 +2743,13 @@
         <v>1505</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
@@ -2757,13 +2757,13 @@
         <v>1505</v>
       </c>
       <c r="B9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C9">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
@@ -2771,13 +2771,13 @@
         <v>1506</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
@@ -2785,13 +2785,13 @@
         <v>1506</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11">
         <v>1.5</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
@@ -2799,13 +2799,13 @@
         <v>1507</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12">
         <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
@@ -2813,13 +2813,13 @@
         <v>1507</v>
       </c>
       <c r="B13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C13">
         <v>0.1</v>
       </c>
       <c r="D13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
@@ -2827,13 +2827,13 @@
         <v>1507</v>
       </c>
       <c r="B14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C14">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
@@ -2841,13 +2841,13 @@
         <v>1601</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C15">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
@@ -2855,13 +2855,13 @@
         <v>1602</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
@@ -2869,13 +2869,13 @@
         <v>1603</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C17">
         <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
@@ -2883,13 +2883,13 @@
         <v>1603</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18">
         <v>1.2</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
@@ -2897,13 +2897,13 @@
         <v>1604</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C19">
         <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
@@ -2911,13 +2911,13 @@
         <v>1604</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20">
         <v>1.5</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
@@ -2925,13 +2925,13 @@
         <v>1604</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C21">
         <v>1.5</v>
       </c>
       <c r="D21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
@@ -2939,13 +2939,13 @@
         <v>1701</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C22">
         <v>1.2</v>
       </c>
       <c r="D22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
@@ -2953,13 +2953,13 @@
         <v>1701</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C23">
         <v>1.2</v>
       </c>
       <c r="D23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
@@ -2967,13 +2967,13 @@
         <v>1702</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C24">
         <v>1.5</v>
       </c>
       <c r="D24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
@@ -2981,13 +2981,13 @@
         <v>1702</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C25">
         <v>1.5</v>
       </c>
       <c r="D25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
@@ -2995,13 +2995,13 @@
         <v>1703</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C26">
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
@@ -3009,13 +3009,13 @@
         <v>1703</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C27">
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
@@ -3023,13 +3023,13 @@
         <v>1703</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28">
         <v>1.2</v>
       </c>
       <c r="D28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
@@ -3037,13 +3037,13 @@
         <v>1704</v>
       </c>
       <c r="B29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C29">
         <v>2.5</v>
       </c>
       <c r="D29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
@@ -3051,13 +3051,13 @@
         <v>1704</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C30">
         <v>2.5</v>
       </c>
       <c r="D30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
@@ -3065,13 +3065,13 @@
         <v>1704</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31">
         <v>1.5</v>
       </c>
       <c r="D31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
@@ -3079,13 +3079,13 @@
         <v>1704</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C32">
         <v>1.5</v>
       </c>
       <c r="D32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
@@ -3093,13 +3093,13 @@
         <v>1704</v>
       </c>
       <c r="B33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C33">
         <v>1.5</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
@@ -3107,13 +3107,13 @@
         <v>1704</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34">
         <v>1.5</v>
       </c>
       <c r="D34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
@@ -3121,13 +3121,13 @@
         <v>1704</v>
       </c>
       <c r="B35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C35">
         <v>1.5</v>
       </c>
       <c r="D35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
@@ -3135,13 +3135,13 @@
         <v>1704</v>
       </c>
       <c r="B36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C36">
         <v>1.5</v>
       </c>
       <c r="D36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -3154,8 +3154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB02C30-3E17-449D-8FEC-0460FEAF3D44}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3170,16 +3170,16 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" t="s">
         <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
       </c>
       <c r="D1" t="s">
         <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -3187,16 +3187,16 @@
         <v>1001</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -3204,16 +3204,16 @@
         <v>1002</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -3221,16 +3221,16 @@
         <v>1003</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="D4">
         <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -3238,16 +3238,16 @@
         <v>1004</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="D5">
         <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -3255,16 +3255,16 @@
         <v>1005</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="D6">
         <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
@@ -3272,20 +3272,21 @@
         <v>1006</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="D7">
         <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Resources/Excels/ItemSheets.xlsx
+++ b/Assets/Resources/Excels/ItemSheets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\sparta_team\3D_TEAM12\Assets\Resources\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507C6004-3464-4FA5-A463-D7540C169183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91AF4F45-9459-4A93-B8D4-57030EA6DA0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51135" yWindow="2955" windowWidth="23220" windowHeight="15285" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40290" yWindow="3075" windowWidth="23220" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemList" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="138">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,34 +143,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Textures/icons/consumables/hp_position</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Textures/icons/consumables/mp_position</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Textures/icons/consumables/movespeed_potion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Textures/icons/consumables/attackspeed_potion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Textures/icons/consumables/attackdamage_potion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Textures/icons/consumables/maxhp_potion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Textures/icons/equipments/weapon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>철검</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -555,6 +527,42 @@
   </si>
   <si>
     <t>consumableType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Textures/status/movespeed_potion</t>
+  </si>
+  <si>
+    <t>/Textures/status/attackspeed_potion</t>
+  </si>
+  <si>
+    <t>/Textures/status/attackdamage_potion</t>
+  </si>
+  <si>
+    <t>/Textures/status/maxhp_potion</t>
+  </si>
+  <si>
+    <t>/Textures/status/hp_potion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Textures/status/mp_potion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Textures/icons/equipments/weapon/combo_weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Textures/icons/equipments/weapon/skill_melee_weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Textures/icons/equipments/weapon/skill_ranged_weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Textures/icons/equipments/weapon/skill_magic_weapon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -882,8 +890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -911,10 +919,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -934,13 +942,13 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -957,13 +965,13 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -980,13 +988,13 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -1003,13 +1011,13 @@
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -1026,13 +1034,13 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
@@ -1049,13 +1057,13 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
@@ -1063,22 +1071,22 @@
         <v>1201</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D8" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G8" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
@@ -1086,22 +1094,22 @@
         <v>1202</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D9" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G9" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
@@ -1109,22 +1117,22 @@
         <v>1203</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G10" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
@@ -1132,22 +1140,22 @@
         <v>1204</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G11" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
@@ -1155,7 +1163,7 @@
         <v>1501</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
@@ -1164,13 +1172,13 @@
         <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F12" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
@@ -1178,22 +1186,22 @@
         <v>1502</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F13" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
@@ -1201,22 +1209,22 @@
         <v>1503</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
         <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F14" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
@@ -1224,22 +1232,22 @@
         <v>1504</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
         <v>27</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F15" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
@@ -1247,22 +1255,22 @@
         <v>1505</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s">
         <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F16" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="G16" t="s">
-        <v>34</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
@@ -1270,22 +1278,22 @@
         <v>1506</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D17" t="s">
         <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F17" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
@@ -1293,22 +1301,22 @@
         <v>1507</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C18" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
@@ -1316,22 +1324,22 @@
         <v>1601</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
       </c>
       <c r="E19" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F19" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G19" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
@@ -1339,22 +1347,22 @@
         <v>1602</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D20" t="s">
         <v>27</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F20" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G20" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
@@ -1362,22 +1370,22 @@
         <v>1603</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D21" t="s">
         <v>27</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F21" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G21" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
@@ -1385,22 +1393,22 @@
         <v>1604</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D22" t="s">
         <v>27</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F22" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G22" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
@@ -1408,22 +1416,22 @@
         <v>1701</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D23" t="s">
         <v>27</v>
       </c>
       <c r="E23" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F23" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="G23" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
@@ -1431,22 +1439,22 @@
         <v>1702</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D24" t="s">
         <v>27</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F24" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="G24" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
@@ -1454,22 +1462,22 @@
         <v>1703</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D25" t="s">
         <v>27</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F25" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="G25" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
@@ -1477,22 +1485,22 @@
         <v>1704</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D26" t="s">
         <v>27</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F26" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="G26" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1524,13 +1532,13 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -1538,13 +1546,13 @@
         <v>1501</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -1552,13 +1560,13 @@
         <v>1502</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -1566,13 +1574,13 @@
         <v>1503</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
@@ -1580,13 +1588,13 @@
         <v>1504</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
@@ -1594,13 +1602,13 @@
         <v>1505</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D6" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
@@ -1608,13 +1616,13 @@
         <v>1506</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
@@ -1622,13 +1630,13 @@
         <v>1507</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D8" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
@@ -1636,13 +1644,13 @@
         <v>1601</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
@@ -1650,13 +1658,13 @@
         <v>1602</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D10" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
@@ -1664,13 +1672,13 @@
         <v>1603</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D11" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
@@ -1678,13 +1686,13 @@
         <v>1604</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D12" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
@@ -1692,13 +1700,13 @@
         <v>1701</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
@@ -1706,13 +1714,13 @@
         <v>1702</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D14" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
@@ -1720,13 +1728,13 @@
         <v>1703</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D15" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
@@ -1734,13 +1742,13 @@
         <v>1704</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C16" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D16" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1777,52 +1785,52 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="G1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="H1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M1" t="s">
+        <v>121</v>
+      </c>
+      <c r="N1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O1" t="s">
         <v>119</v>
       </c>
-      <c r="I1" t="s">
-        <v>105</v>
-      </c>
-      <c r="J1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K1" t="s">
-        <v>107</v>
-      </c>
-      <c r="L1" t="s">
-        <v>108</v>
-      </c>
-      <c r="M1" t="s">
-        <v>128</v>
-      </c>
-      <c r="N1" t="s">
-        <v>114</v>
-      </c>
-      <c r="O1" t="s">
-        <v>126</v>
-      </c>
       <c r="P1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="Q1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.45">
@@ -1833,7 +1841,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -1886,7 +1894,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D3">
         <v>10</v>
@@ -1939,7 +1947,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D4">
         <v>15</v>
@@ -1992,7 +2000,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -2045,7 +2053,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D6">
         <v>10</v>
@@ -2098,7 +2106,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D7">
         <v>15</v>
@@ -2151,7 +2159,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D8">
         <v>10</v>
@@ -2204,7 +2212,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D9">
         <v>10</v>
@@ -2257,7 +2265,7 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D10">
         <v>15</v>
@@ -2310,7 +2318,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -2363,7 +2371,7 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D12">
         <v>10</v>
@@ -2416,7 +2424,7 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D13">
         <v>15</v>
@@ -2469,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D14">
         <v>40</v>
@@ -2522,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D15">
         <v>25</v>
@@ -2575,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D16">
         <v>55</v>
@@ -2645,13 +2653,13 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
         <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -2665,7 +2673,7 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -2679,7 +2687,7 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -2693,7 +2701,7 @@
         <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
@@ -2707,7 +2715,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
@@ -2721,7 +2729,7 @@
         <v>100</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
@@ -2735,7 +2743,7 @@
         <v>1.5</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
@@ -2749,7 +2757,7 @@
         <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
@@ -2757,13 +2765,13 @@
         <v>1505</v>
       </c>
       <c r="B9" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C9">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
@@ -2777,7 +2785,7 @@
         <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
@@ -2791,7 +2799,7 @@
         <v>1.5</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
@@ -2805,7 +2813,7 @@
         <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
@@ -2813,13 +2821,13 @@
         <v>1507</v>
       </c>
       <c r="B13" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C13">
         <v>0.1</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
@@ -2827,13 +2835,13 @@
         <v>1507</v>
       </c>
       <c r="B14" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C14">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
@@ -2841,13 +2849,13 @@
         <v>1601</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C15">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
@@ -2855,13 +2863,13 @@
         <v>1602</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
@@ -2869,13 +2877,13 @@
         <v>1603</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C17">
         <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
@@ -2889,7 +2897,7 @@
         <v>1.2</v>
       </c>
       <c r="D18" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
@@ -2897,13 +2905,13 @@
         <v>1604</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C19">
         <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
@@ -2917,7 +2925,7 @@
         <v>1.5</v>
       </c>
       <c r="D20" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
@@ -2925,13 +2933,13 @@
         <v>1604</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C21">
         <v>1.5</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
@@ -2939,13 +2947,13 @@
         <v>1701</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C22">
         <v>1.2</v>
       </c>
       <c r="D22" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
@@ -2953,13 +2961,13 @@
         <v>1701</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C23">
         <v>1.2</v>
       </c>
       <c r="D23" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
@@ -2967,13 +2975,13 @@
         <v>1702</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C24">
         <v>1.5</v>
       </c>
       <c r="D24" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
@@ -2981,13 +2989,13 @@
         <v>1702</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C25">
         <v>1.5</v>
       </c>
       <c r="D25" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
@@ -2995,13 +3003,13 @@
         <v>1703</v>
       </c>
       <c r="B26" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C26">
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
@@ -3009,13 +3017,13 @@
         <v>1703</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C27">
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
@@ -3029,7 +3037,7 @@
         <v>1.2</v>
       </c>
       <c r="D28" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
@@ -3037,13 +3045,13 @@
         <v>1704</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C29">
         <v>2.5</v>
       </c>
       <c r="D29" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
@@ -3051,13 +3059,13 @@
         <v>1704</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C30">
         <v>2.5</v>
       </c>
       <c r="D30" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
@@ -3071,7 +3079,7 @@
         <v>1.5</v>
       </c>
       <c r="D31" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
@@ -3085,7 +3093,7 @@
         <v>1.5</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
@@ -3099,7 +3107,7 @@
         <v>1.5</v>
       </c>
       <c r="D33" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
@@ -3107,13 +3115,13 @@
         <v>1704</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C34">
         <v>1.5</v>
       </c>
       <c r="D34" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
@@ -3121,13 +3129,13 @@
         <v>1704</v>
       </c>
       <c r="B35" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C35">
         <v>1.5</v>
       </c>
       <c r="D35" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
@@ -3135,13 +3143,13 @@
         <v>1704</v>
       </c>
       <c r="B36" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C36">
         <v>1.5</v>
       </c>
       <c r="D36" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -3154,7 +3162,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB02C30-3E17-449D-8FEC-0460FEAF3D44}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -3170,7 +3178,7 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C1" t="s">
         <v>8</v>
@@ -3179,7 +3187,7 @@
         <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -3196,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -3213,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -3230,7 +3238,7 @@
         <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -3247,7 +3255,7 @@
         <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -3264,7 +3272,7 @@
         <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
@@ -3281,7 +3289,7 @@
         <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Excels/ItemSheets.xlsx
+++ b/Assets/Resources/Excels/ItemSheets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\sparta_team\3D_TEAM12\Assets\Resources\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCB0C25-83C0-4E88-83F7-87E931071F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B592558A-C351-427B-9612-AFA9381A7BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40215" yWindow="1620" windowWidth="23220" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34020" yWindow="2025" windowWidth="23220" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemList" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="145">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -586,6 +586,10 @@
   </si>
   <si>
     <t>/Textures/icons/consumables/maxhp_potion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Textures/icons/equipments/combo_weapon_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -914,7 +918,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1201,7 +1205,7 @@
         <v>88</v>
       </c>
       <c r="G12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">

--- a/Assets/Resources/Excels/ItemSheets.xlsx
+++ b/Assets/Resources/Excels/ItemSheets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\sparta_team\3D_TEAM12\Assets\Resources\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B592558A-C351-427B-9612-AFA9381A7BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A697C602-0A7D-4B3A-A48E-E37CD1722396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34020" yWindow="2025" windowWidth="23220" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39075" yWindow="4050" windowWidth="29640" windowHeight="15045" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemList" sheetId="1" r:id="rId1"/>
@@ -917,7 +917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -1788,8 +1788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F39F50C1-EBAF-4FC6-84DD-C074EB80D8AB}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2593,7 +2593,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P15">
         <v>45</v>

--- a/Assets/Resources/Excels/ItemSheets.xlsx
+++ b/Assets/Resources/Excels/ItemSheets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\sparta_team\3D_TEAM12\Assets\Resources\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A697C602-0A7D-4B3A-A48E-E37CD1722396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F8F67F-1F96-48C1-9327-B8B30D9F291A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39075" yWindow="4050" windowWidth="29640" windowHeight="15045" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47235" yWindow="2520" windowWidth="27405" windowHeight="14910" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemList" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="151">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -590,6 +590,30 @@
   </si>
   <si>
     <t>/Textures/icons/equipments/combo_weapon_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sfxPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackWarrior</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackMage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackRougue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HitResource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackPlayer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1786,10 +1810,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F39F50C1-EBAF-4FC6-84DD-C074EB80D8AB}">
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1807,7 +1831,7 @@
     <col min="17" max="17" width="13.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1859,8 +1883,11 @@
       <c r="Q1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="R1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1501</v>
       </c>
@@ -1912,8 +1939,11 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="R2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1501</v>
       </c>
@@ -1965,8 +1995,11 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="R3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1501</v>
       </c>
@@ -2018,8 +2051,11 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="R4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1502</v>
       </c>
@@ -2071,8 +2107,11 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="R5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1502</v>
       </c>
@@ -2124,8 +2163,11 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="R6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1502</v>
       </c>
@@ -2177,8 +2219,11 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="R7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>1503</v>
       </c>
@@ -2230,8 +2275,11 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="R8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>1503</v>
       </c>
@@ -2283,8 +2331,11 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="R9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>1503</v>
       </c>
@@ -2336,8 +2387,11 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="R10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>1504</v>
       </c>
@@ -2389,8 +2443,11 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="R11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>1504</v>
       </c>
@@ -2442,8 +2499,11 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="R12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>1504</v>
       </c>
@@ -2495,8 +2555,11 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="R13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>1505</v>
       </c>
@@ -2548,8 +2611,11 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="R14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>1506</v>
       </c>
@@ -2601,8 +2667,11 @@
       <c r="Q15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="R15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1507</v>
       </c>
@@ -2653,6 +2722,9 @@
       </c>
       <c r="Q16">
         <v>0</v>
+      </c>
+      <c r="R16" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
